--- a/bat monta carga de pisa repartido.xlsx
+++ b/bat monta carga de pisa repartido.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="RESUMEN" sheetId="1" state="visible" r:id="rId2"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1963" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1966" uniqueCount="132">
   <si>
     <t xml:space="preserve">C </t>
   </si>
@@ -452,22 +452,10 @@
     <t xml:space="preserve">Amperes </t>
   </si>
   <si>
-    <t xml:space="preserve">charger</t>
-  </si>
-  <si>
     <t xml:space="preserve">15</t>
   </si>
   <si>
     <t xml:space="preserve">19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n </t>
   </si>
 </sst>
 </file>
@@ -477,7 +465,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -558,6 +546,12 @@
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="17">
@@ -794,7 +788,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1223,6 +1217,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -9539,7 +9537,7 @@
   </sheetPr>
   <dimension ref="A1:R103"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -14661,8 +14659,8 @@
   </sheetPr>
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F40" activeCellId="0" sqref="F40"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15174,8 +15172,8 @@
         <f aca="false">D14</f>
         <v>36</v>
       </c>
-      <c r="K14" s="6" t="s">
-        <v>130</v>
+      <c r="K14" s="6" t="n">
+        <v>965</v>
       </c>
       <c r="L14" s="21" t="s">
         <v>17</v>
@@ -16093,8 +16091,8 @@
   </sheetPr>
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M7" activeCellId="0" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16103,7 +16101,7 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.748987854251"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.5708502024291"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="2.1417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.1983805668016"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.5708502024291"/>
     <col collapsed="false" hidden="false" max="13" min="11" style="0" width="10.6032388663968"/>
@@ -16224,7 +16222,7 @@
         <v>93</v>
       </c>
       <c r="K3" s="91" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L3" s="91" t="s">
         <v>17</v>
@@ -16273,7 +16271,7 @@
         <v>120</v>
       </c>
       <c r="K4" s="91" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L4" s="91" t="s">
         <v>17</v>
@@ -16321,7 +16319,7 @@
         <v>93</v>
       </c>
       <c r="K5" s="104" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L5" s="104" t="s">
         <v>17</v>
@@ -16659,7 +16657,7 @@
         <v>93</v>
       </c>
       <c r="K12" s="91" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L12" s="91" t="s">
         <v>17</v>
@@ -16676,7 +16674,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
         <v>11</v>
       </c>
@@ -16686,13 +16684,11 @@
       <c r="C13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="6" t="e">
-        <f aca="false">O13</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E13" s="6" t="e">
-        <f aca="false">P13</f>
-        <v>#VALUE!</v>
+      <c r="D13" s="107" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="107" t="s">
+        <v>48</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>48</v>
@@ -16700,14 +16696,14 @@
       <c r="G13" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="I13" s="91" t="s">
-        <v>133</v>
-      </c>
-      <c r="J13" s="91" t="s">
-        <v>134</v>
-      </c>
-      <c r="K13" s="91" t="s">
-        <v>135</v>
+      <c r="I13" s="107" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" s="107" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="107" t="s">
+        <v>48</v>
       </c>
       <c r="L13" s="91" t="s">
         <v>17</v>
@@ -16715,13 +16711,11 @@
       <c r="M13" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="O13" s="91" t="e">
-        <f aca="false">I13*2</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P13" s="91" t="e">
-        <f aca="false">((K13-1)/2)*J13</f>
-        <v>#VALUE!</v>
+      <c r="O13" s="107" t="s">
+        <v>48</v>
+      </c>
+      <c r="P13" s="107" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17419,27 +17413,27 @@
         <v>49</v>
       </c>
       <c r="H28" s="106"/>
-      <c r="I28" s="107" t="n">
+      <c r="I28" s="108" t="n">
         <v>24</v>
       </c>
-      <c r="J28" s="107" t="n">
+      <c r="J28" s="108" t="n">
         <v>85</v>
       </c>
-      <c r="K28" s="107" t="n">
+      <c r="K28" s="108" t="n">
         <v>13</v>
       </c>
-      <c r="L28" s="107" t="s">
-        <v>17</v>
-      </c>
-      <c r="M28" s="107" t="s">
+      <c r="L28" s="108" t="s">
+        <v>17</v>
+      </c>
+      <c r="M28" s="108" t="s">
         <v>17</v>
       </c>
       <c r="N28" s="106"/>
-      <c r="O28" s="107" t="n">
+      <c r="O28" s="108" t="n">
         <f aca="false">I28*2</f>
         <v>48</v>
       </c>
-      <c r="P28" s="107" t="n">
+      <c r="P28" s="108" t="n">
         <f aca="false">((K28-1)/2)*J28</f>
         <v>510</v>
       </c>
